--- a/src/files/dane1.xlsx
+++ b/src/files/dane1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciej\Desktop\algSort\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciej\Desktop\inzml\algSort\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D4754-1153-4388-B0CC-EB8E2559A4F3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8CEFA2-3E55-4F08-A21A-A53DEEAA49E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4410" windowWidth="20730" windowHeight="11160" xr2:uid="{90EF5C70-17D5-475D-B428-BF99AFFA9037}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{90EF5C70-17D5-475D-B428-BF99AFFA9037}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,90 +378,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F49902-9499-415D-B43E-0AA22BB4EECC}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25</v>
       </c>
